--- a/UC-EntityClass.xlsx
+++ b/UC-EntityClass.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ECEUWO\Teaching\Fall2017\SE3352A\Assignments\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jterp\Documents\Third Year University\SE3352\FinalGroupProject\Assignment2\Loop-Solutions-Inc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,15 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
   <si>
     <t xml:space="preserve">Team Name: </t>
   </si>
   <si>
     <t>Project Name:</t>
-  </si>
-  <si>
-    <t>.. and so on</t>
   </si>
   <si>
     <t>add x to link</t>
@@ -42,62 +39,106 @@
 Entity Class</t>
   </si>
   <si>
-    <t>class name 1</t>
-  </si>
-  <si>
-    <t>class name 2</t>
-  </si>
-  <si>
-    <t>class name 3</t>
-  </si>
-  <si>
-    <t>class name 4</t>
-  </si>
-  <si>
-    <t>class name 5</t>
-  </si>
-  <si>
-    <t>use case
-name 1</t>
-  </si>
-  <si>
-    <t>use case
-name 2</t>
-  </si>
-  <si>
-    <t>use case
-name 3</t>
-  </si>
-  <si>
-    <t>use case
-name 4</t>
-  </si>
-  <si>
-    <t>use case
-name 5</t>
-  </si>
-  <si>
-    <t>use case
-name 6</t>
-  </si>
-  <si>
-    <t>use case
-name 7</t>
-  </si>
-  <si>
-    <t>use case
-name 8</t>
-  </si>
-  <si>
-    <t>use case
-name 9</t>
-  </si>
-  <si>
-    <t>use case
-name 10</t>
-  </si>
-  <si>
     <t>Use Cases-to-Entity Classs Traceability Matrix</t>
+  </si>
+  <si>
+    <t>Change Password</t>
+  </si>
+  <si>
+    <t>Manage Dynamic Forms</t>
+  </si>
+  <si>
+    <t>Manage Account</t>
+  </si>
+  <si>
+    <t>Manage Exercises</t>
+  </si>
+  <si>
+    <t>Manage Rehab Plans</t>
+  </si>
+  <si>
+    <t>Manage Assessment Tests</t>
+  </si>
+  <si>
+    <t>Assign Exercises/ Tests</t>
+  </si>
+  <si>
+    <t>Assign Plans</t>
+  </si>
+  <si>
+    <t>Generate Assessement Report</t>
+  </si>
+  <si>
+    <t>Manage Treatment</t>
+  </si>
+  <si>
+    <t>Create Account</t>
+  </si>
+  <si>
+    <t>Manage Rubrics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submit Injury Form </t>
+  </si>
+  <si>
+    <t>Complete Assessment Test</t>
+  </si>
+  <si>
+    <t>Make Payment</t>
+  </si>
+  <si>
+    <t>View/ Perform Treatment Plans</t>
+  </si>
+  <si>
+    <t>Manage Appointment</t>
+  </si>
+  <si>
+    <t>Display Patient History</t>
+  </si>
+  <si>
+    <t>Physiotherapist</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>FormQuestion</t>
+  </si>
+  <si>
+    <t>Dynamic Form</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Exercise</t>
+  </si>
+  <si>
+    <t>Rubric</t>
+  </si>
+  <si>
+    <t>Assessment</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Appointment</t>
+  </si>
+  <si>
+    <t>Rubric Question</t>
+  </si>
+  <si>
+    <t>Payment</t>
   </si>
 </sst>
 </file>
@@ -170,12 +211,6 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -191,6 +226,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,181 +547,540 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="17" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="1"/>
+    <col min="13" max="13" width="12.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/UC-EntityClass.xlsx
+++ b/UC-EntityClass.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jterp\Documents\Third Year University\SE3352\FinalGroupProject\Assignment2\Loop-Solutions-Inc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Desktop\Year3SE\SE3352A\Assignment\Loop-Solutions-Inc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
   <si>
     <t xml:space="preserve">Team Name: </t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>Payment</t>
+  </si>
+  <si>
+    <t>Team Name: Loop Solutions Inc.</t>
+  </si>
+  <si>
+    <t>Project Name: Self Start Assignment Two</t>
+  </si>
+  <si>
+    <t>X represents a relationship</t>
   </si>
 </sst>
 </file>
@@ -547,32 +556,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="12.6" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.15625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26171875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.41796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="17.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8.83984375" style="1"/>
     <col min="11" max="11" width="17" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="1"/>
-    <col min="13" max="13" width="12.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.83984375" style="1"/>
+    <col min="13" max="13" width="12.41796875" style="1" customWidth="1"/>
     <col min="14" max="14" width="15" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="1"/>
+    <col min="15" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -584,7 +591,7 @@
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -595,7 +602,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="25.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -642,7 +649,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="25.2" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -665,7 +672,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="37.799999999999997" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -690,7 +697,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="25.2" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -711,7 +718,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="25.2" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -734,7 +741,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="25.2" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -757,7 +764,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="37.799999999999997" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -780,7 +787,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="37.799999999999997" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -805,7 +812,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -830,7 +837,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="37.799999999999997" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -853,7 +860,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="25.2" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -880,7 +887,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="25.2" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
@@ -901,7 +908,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="25.2" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
@@ -928,7 +935,7 @@
       </c>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="25.2" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
@@ -951,7 +958,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="37.799999999999997" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -976,7 +983,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="25.2" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -999,7 +1006,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="37.799999999999997" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -1026,7 +1033,7 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="25.2" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -1051,7 +1058,7 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="37.799999999999997" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
@@ -1081,6 +1088,19 @@
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
